--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -94,19 +94,19 @@
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1046,13 +1046,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.762114537444934</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L18">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>0.9399999999999999</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,25 +1072,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.7555555555555555</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L19">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1098,25 +1098,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.7450980392156863</v>
+        <v>0.73</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1124,13 +1124,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.73</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>0.92</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1150,25 +1150,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N22">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1306,25 +1306,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.6276923076923077</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
         <v>204</v>
       </c>
       <c r="M28">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="10:17">
